--- a/股票基金.xlsx
+++ b/股票基金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>0.5个点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,30 @@
   </si>
   <si>
     <t>银华中小盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富社会责任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达科讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华中证环保产业指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱信申银万国证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银沪深300指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银创新动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +492,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:S45"/>
+  <dimension ref="C3:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1485,53 +1518,89 @@
         <v>1.2763</v>
       </c>
     </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E37" s="1">
+        <v>111029</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E38" s="8">
         <v>603</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E39" s="1">
         <v>180031</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="1">
         <v>470028</v>
       </c>
+      <c r="G40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="1">
         <v>164304</v>
       </c>
+      <c r="G41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="1">
         <v>163113</v>
       </c>
+      <c r="G42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E43" s="1">
-        <v>519081</v>
-      </c>
+        <v>660008</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E44" s="1">
-        <v>660008</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E45" s="1">
+      <c r="E44" s="8">
         <v>893</v>
       </c>
+      <c r="G44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/股票基金.xlsx
+++ b/股票基金.xlsx
@@ -1,22 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="换算" sheetId="1" r:id="rId1"/>
+    <sheet name="自选基金" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每月月初调整一次自选基金方案</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>0.5个点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,15 +416,140 @@
     <t>工银创新动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>广发轮动配置股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发新动力股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发行业领先股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证500ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证500指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发沪深300指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天博创新股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天合稳健股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈策略增长股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈资源优选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城核心竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城精选蓝筹股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏兴华混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏优势增长股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏稳增混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富民营活力股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达科讯股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达新兴灵活配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达科翔股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达平稳增长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达安心汇报债券A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达新经济混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华中小盘股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华价值优选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华内需精选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华领先策略股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银策略股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：总计三十支自选基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达创新驱动混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +602,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -468,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +688,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1608,15 +1805,407 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="13">
+        <v>42094</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="F4" s="13">
+        <v>42124</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="I4" s="13">
+        <v>42155</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8">
+        <v>213003</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8">
+        <v>213008</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="8">
+        <v>550</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8">
+        <v>270025</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8">
+        <v>510513</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8">
+        <v>162711</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8">
+        <v>270010</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8">
+        <v>519035</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8">
+        <v>100026</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8">
+        <v>161005</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8">
+        <v>260116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8">
+        <v>260110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8">
+        <v>519908</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8">
+        <v>519029</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8">
+        <v>470009</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8">
+        <v>110029</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8">
+        <v>603</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8">
+        <v>404</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8">
+        <v>110013</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8">
+        <v>110001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8">
+        <v>110027</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8">
+        <v>1018</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8">
+        <v>180031</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="8">
+        <v>519001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="8">
+        <v>161810</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="8">
+        <v>180013</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="8">
+        <v>163805</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="8">
+        <v>163807</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A4:B47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
